--- a/Sura/DataSource - Endoso Exclusion de Riesgo Vehiculos.xlsx
+++ b/Sura/DataSource - Endoso Exclusion de Riesgo Vehiculos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21086FD-6960-4E45-B60A-CF9D04FF1966}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2238692-D875-4782-90C2-FE225739C421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1EBAD192-8EA4-4529-A9A1-A760CDAAE23D}"/>
   </bookViews>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373A3F38-8303-4E51-81CC-ECF025BB188A}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +394,12 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>14</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Sura/DataSource - Endoso Exclusion de Riesgo Vehiculos.xlsx
+++ b/Sura/DataSource - Endoso Exclusion de Riesgo Vehiculos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\Sura\Sura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2238692-D875-4782-90C2-FE225739C421}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DFB2E7-B8B3-426B-A221-99357D302362}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1EBAD192-8EA4-4529-A9A1-A760CDAAE23D}"/>
   </bookViews>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{373A3F38-8303-4E51-81CC-ECF025BB188A}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,12 +394,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
